--- a/public/export/data-19.xlsx
+++ b/public/export/data-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18" count="18">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19" count="19">
   <x:si>
     <x:t>id</x:t>
   </x:si>
@@ -43,31 +43,34 @@
     <x:t>Mancing</x:t>
   </x:si>
   <x:si>
-    <x:t>Mancing keonaran</x:t>
+    <x:t>Mancing keonaran dan keributan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>done</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jun 01 2021 07:00:00 GMT+0700 (Western Indonesia Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tue Jun 01 2021 23:41:20 GMT+0700 (Western Indonesia Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sat Jun 05 2021 00:41:08 GMT+0700 (Western Indonesia Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mancing ikan tapi sekarang mah</x:t>
   </x:si>
   <x:si>
     <x:t>undone</x:t>
   </x:si>
   <x:si>
-    <x:t>Tue Jun 01 2021 07:00:00 GMT+0700 (Western Indonesia Time)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tue Jun 01 2021 23:41:20 GMT+0700 (Western Indonesia Time)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tue Jun 01 2021 23:41:20 GMT+0700 (Western Indonesia Time)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mancing ikan tapi sekarang mah</x:t>
-  </x:si>
-  <x:si>
     <x:t>Wed Jun 02 2021 07:00:00 GMT+0700 (Western Indonesia Time)</x:t>
   </x:si>
   <x:si>
     <x:t>Tue Jun 01 2021 23:41:55 GMT+0700 (Western Indonesia Time)</x:t>
   </x:si>
   <x:si>
-    <x:t>Tue Jun 01 2021 23:41:55 GMT+0700 (Western Indonesia Time)</x:t>
+    <x:t>Sat Jun 05 2021 00:13:05 GMT+0700 (Western Indonesia Time)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -493,19 +496,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
